--- a/Code/Results/Cases/Case_5_107/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_107/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.86680926811865</v>
+        <v>11.57568926279046</v>
       </c>
       <c r="C2">
-        <v>7.186211401870718</v>
+        <v>8.411402818432384</v>
       </c>
       <c r="D2">
-        <v>5.250806173063775</v>
+        <v>5.77987598320147</v>
       </c>
       <c r="E2">
-        <v>7.497831962153641</v>
+        <v>12.338066472155</v>
       </c>
       <c r="F2">
-        <v>19.47105288620743</v>
+        <v>27.5793829702987</v>
       </c>
       <c r="I2">
-        <v>15.63176315721415</v>
+        <v>24.88168758446635</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.94666514524931</v>
+        <v>8.990456234174768</v>
       </c>
       <c r="L2">
-        <v>6.34674718232473</v>
+        <v>10.1392141833351</v>
       </c>
       <c r="M2">
-        <v>9.555489143383703</v>
+        <v>13.85074040336107</v>
       </c>
       <c r="N2">
-        <v>12.9511526696746</v>
+        <v>20.01073722370116</v>
       </c>
       <c r="O2">
-        <v>16.02378249078518</v>
+        <v>24.7763701348219</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.00260538209456</v>
+        <v>11.35274404535038</v>
       </c>
       <c r="C3">
-        <v>7.046726007831422</v>
+        <v>8.368775653057654</v>
       </c>
       <c r="D3">
-        <v>5.096122596428021</v>
+        <v>5.726312211540399</v>
       </c>
       <c r="E3">
-        <v>7.505389141661134</v>
+        <v>12.3646028003379</v>
       </c>
       <c r="F3">
-        <v>19.193059646411</v>
+        <v>27.6151517684014</v>
       </c>
       <c r="I3">
-        <v>15.7320221308478</v>
+        <v>24.96151525016285</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.3242422205325</v>
+        <v>8.824049441003243</v>
       </c>
       <c r="L3">
-        <v>6.263149019291786</v>
+        <v>10.14659296349581</v>
       </c>
       <c r="M3">
-        <v>9.235147668556444</v>
+        <v>13.81954460307021</v>
       </c>
       <c r="N3">
-        <v>13.13958715950806</v>
+        <v>20.06815077141586</v>
       </c>
       <c r="O3">
-        <v>16.01281136494621</v>
+        <v>24.84301352394798</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.44020702481222</v>
+        <v>11.2156673369071</v>
       </c>
       <c r="C4">
-        <v>6.959424471925018</v>
+        <v>8.34211231900327</v>
       </c>
       <c r="D4">
-        <v>4.998082326911828</v>
+        <v>5.692592784133676</v>
       </c>
       <c r="E4">
-        <v>7.513358658889587</v>
+        <v>12.38243338315651</v>
       </c>
       <c r="F4">
-        <v>19.03569224957875</v>
+        <v>27.64333794687496</v>
       </c>
       <c r="I4">
-        <v>15.8033838383408</v>
+        <v>25.01454087973668</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.921989541402604</v>
+        <v>8.721702006289339</v>
       </c>
       <c r="L4">
-        <v>6.214044728787084</v>
+        <v>10.1524957887733</v>
       </c>
       <c r="M4">
-        <v>9.036217970834397</v>
+        <v>13.80233469023047</v>
       </c>
       <c r="N4">
-        <v>13.25802939279027</v>
+        <v>20.10506738927893</v>
       </c>
       <c r="O4">
-        <v>16.01746564778198</v>
+        <v>24.88844642166266</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.20299394005312</v>
+        <v>11.15983759346573</v>
       </c>
       <c r="C5">
-        <v>6.923453130169424</v>
+        <v>8.331126388260882</v>
       </c>
       <c r="D5">
-        <v>4.957392166454555</v>
+        <v>5.678648164320137</v>
       </c>
       <c r="E5">
-        <v>7.517427273635895</v>
+        <v>12.39008638610733</v>
       </c>
       <c r="F5">
-        <v>18.97490809029354</v>
+        <v>27.65638779086868</v>
       </c>
       <c r="I5">
-        <v>15.83484648866089</v>
+        <v>25.03715771493138</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.753067877873804</v>
+        <v>8.680006464146574</v>
       </c>
       <c r="L5">
-        <v>6.19460611029404</v>
+        <v>10.1552468966056</v>
       </c>
       <c r="M5">
-        <v>8.954711414661638</v>
+        <v>13.79581564970971</v>
       </c>
       <c r="N5">
-        <v>13.30700295954652</v>
+        <v>20.12053095236793</v>
       </c>
       <c r="O5">
-        <v>16.02213700252547</v>
+        <v>24.90809458980674</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.16311862075724</v>
+        <v>11.15057121412935</v>
       </c>
       <c r="C6">
-        <v>6.91745689324339</v>
+        <v>8.329294993222891</v>
       </c>
       <c r="D6">
-        <v>4.950592034120709</v>
+        <v>5.676320525451258</v>
       </c>
       <c r="E6">
-        <v>7.518151971753971</v>
+        <v>12.39138053936738</v>
       </c>
       <c r="F6">
-        <v>18.96501653920935</v>
+        <v>27.65864910460463</v>
       </c>
       <c r="I6">
-        <v>15.84021235381217</v>
+        <v>25.04097412678637</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.724718302147757</v>
+        <v>8.673085305470837</v>
       </c>
       <c r="L6">
-        <v>6.19141320784356</v>
+        <v>10.15572460911252</v>
       </c>
       <c r="M6">
-        <v>8.941154416502327</v>
+        <v>13.79476315752902</v>
       </c>
       <c r="N6">
-        <v>13.31517821319629</v>
+        <v>20.12312405184793</v>
       </c>
       <c r="O6">
-        <v>16.02307761640685</v>
+        <v>24.91142560415388</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.43704045892221</v>
+        <v>11.21491417227249</v>
       </c>
       <c r="C7">
-        <v>6.958940921039418</v>
+        <v>8.341964642681015</v>
       </c>
       <c r="D7">
-        <v>4.99753650800481</v>
+        <v>5.692405539756534</v>
       </c>
       <c r="E7">
-        <v>7.513410227085406</v>
+        <v>12.38253502722681</v>
       </c>
       <c r="F7">
-        <v>19.03485896739343</v>
+        <v>27.64350761223989</v>
       </c>
       <c r="I7">
-        <v>15.80379861639265</v>
+        <v>25.01484181529231</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.919731574768164</v>
+        <v>8.721139563680213</v>
       </c>
       <c r="L7">
-        <v>6.213780242479051</v>
+        <v>10.15253149087051</v>
       </c>
       <c r="M7">
-        <v>9.035120362936224</v>
+        <v>13.80224476482393</v>
       </c>
       <c r="N7">
-        <v>13.25868698025713</v>
+        <v>20.10527423519203</v>
       </c>
       <c r="O7">
-        <v>16.01751753200958</v>
+        <v>24.88870681413945</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.57540125294337</v>
+        <v>11.49890249683494</v>
       </c>
       <c r="C8">
-        <v>7.138473157145389</v>
+        <v>8.39680838124289</v>
       </c>
       <c r="D8">
-        <v>5.198125754454478</v>
+        <v>5.76158282640305</v>
       </c>
       <c r="E8">
-        <v>7.499736940955912</v>
+        <v>12.34689737920939</v>
       </c>
       <c r="F8">
-        <v>19.37243588898119</v>
+        <v>27.59042362197627</v>
       </c>
       <c r="I8">
-        <v>15.66424734013458</v>
+        <v>24.90837955863764</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.7362469103285</v>
+        <v>8.933147954733627</v>
       </c>
       <c r="L8">
-        <v>6.317468355489416</v>
+        <v>10.14147396146906</v>
       </c>
       <c r="M8">
-        <v>9.445570186615242</v>
+        <v>13.83958374353299</v>
       </c>
       <c r="N8">
-        <v>13.01556654716087</v>
+        <v>20.03018867903767</v>
       </c>
       <c r="O8">
-        <v>16.01758212846764</v>
+        <v>24.79841135351477</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.55751178705319</v>
+        <v>12.05101497620471</v>
       </c>
       <c r="C9">
-        <v>7.476523836729005</v>
+        <v>8.500346187602585</v>
       </c>
       <c r="D9">
-        <v>5.565897264559934</v>
+        <v>5.890419064262781</v>
       </c>
       <c r="E9">
-        <v>7.500061597100943</v>
+        <v>12.28919261571202</v>
       </c>
       <c r="F9">
-        <v>20.1398787444358</v>
+        <v>27.53574918551134</v>
       </c>
       <c r="I9">
-        <v>15.47221607964683</v>
+        <v>24.73144106361075</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.17663601483532</v>
+        <v>9.345153287726948</v>
       </c>
       <c r="L9">
-        <v>6.537871422810526</v>
+        <v>10.13064981085861</v>
       </c>
       <c r="M9">
-        <v>10.22785076454895</v>
+        <v>13.9279913284089</v>
       </c>
       <c r="N9">
-        <v>12.55972481126559</v>
+        <v>19.89609731982589</v>
       </c>
       <c r="O9">
-        <v>16.11200483039948</v>
+        <v>24.65720150289095</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.8639049185659</v>
+        <v>12.44948469270492</v>
       </c>
       <c r="C10">
-        <v>7.715308300232983</v>
+        <v>8.573810382262257</v>
       </c>
       <c r="D10">
-        <v>5.819010598297855</v>
+        <v>5.980624122030444</v>
       </c>
       <c r="E10">
-        <v>7.517822976805606</v>
+        <v>12.25420025585162</v>
       </c>
       <c r="F10">
-        <v>20.76710739276547</v>
+        <v>27.52573124378134</v>
       </c>
       <c r="I10">
-        <v>15.3863940781858</v>
+        <v>24.62086040735545</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.13576542717187</v>
+        <v>9.642513765553016</v>
       </c>
       <c r="L10">
-        <v>6.709376812873981</v>
+        <v>10.12927665151721</v>
       </c>
       <c r="M10">
-        <v>10.78306332396139</v>
+        <v>14.0018574982666</v>
       </c>
       <c r="N10">
-        <v>12.23632520509604</v>
+        <v>19.8055185010306</v>
       </c>
       <c r="O10">
-        <v>16.24406667040049</v>
+        <v>24.57537437890571</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.42626397018457</v>
+        <v>12.62836285587491</v>
       </c>
       <c r="C11">
-        <v>7.821671179371746</v>
+        <v>8.606631694091606</v>
       </c>
       <c r="D11">
-        <v>5.930188966641619</v>
+        <v>6.020634394715334</v>
       </c>
       <c r="E11">
-        <v>7.529914305607005</v>
+        <v>12.23988393843665</v>
       </c>
       <c r="F11">
-        <v>21.06588323540178</v>
+        <v>27.52771327147661</v>
       </c>
       <c r="I11">
-        <v>15.36059724888219</v>
+        <v>24.5747724245505</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.55053250426058</v>
+        <v>9.776024249251549</v>
       </c>
       <c r="L11">
-        <v>6.78929315050951</v>
+        <v>10.13007038775864</v>
       </c>
       <c r="M11">
-        <v>11.03040155467677</v>
+        <v>14.03731621514009</v>
       </c>
       <c r="N11">
-        <v>12.09141115712871</v>
+        <v>19.76601863288473</v>
       </c>
       <c r="O11">
-        <v>16.31881852362354</v>
+        <v>24.54291948694569</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.63467201351382</v>
+        <v>12.69569073700109</v>
       </c>
       <c r="C12">
-        <v>7.861609506654787</v>
+        <v>8.618971370480468</v>
       </c>
       <c r="D12">
-        <v>5.971701046474259</v>
+        <v>6.035632995890083</v>
       </c>
       <c r="E12">
-        <v>7.535086397680843</v>
+        <v>12.23469265243313</v>
       </c>
       <c r="F12">
-        <v>21.18092039064386</v>
+        <v>27.52940236268622</v>
       </c>
       <c r="I12">
-        <v>15.35283992436305</v>
+        <v>24.5579265447453</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.70450075040242</v>
+        <v>9.826280686480748</v>
       </c>
       <c r="L12">
-        <v>6.819812551679226</v>
+        <v>10.13057390198598</v>
       </c>
       <c r="M12">
-        <v>11.12324018476164</v>
+        <v>14.05100315682212</v>
       </c>
       <c r="N12">
-        <v>12.03682763358928</v>
+        <v>19.75130497737673</v>
       </c>
       <c r="O12">
-        <v>16.34931816358345</v>
+        <v>24.53131610064592</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.5899890183513</v>
+        <v>12.68120969209698</v>
       </c>
       <c r="C13">
-        <v>7.853023349471858</v>
+        <v>8.616317809114515</v>
       </c>
       <c r="D13">
-        <v>5.962787134346971</v>
+        <v>6.032409637484601</v>
       </c>
       <c r="E13">
-        <v>7.533945844154901</v>
+        <v>12.2358004656101</v>
       </c>
       <c r="F13">
-        <v>21.15606130052186</v>
+        <v>27.52899688040979</v>
       </c>
       <c r="I13">
-        <v>15.35441941312998</v>
+        <v>24.56152761930313</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.67147847168025</v>
+        <v>9.815471189816428</v>
       </c>
       <c r="L13">
-        <v>6.813228482229544</v>
+        <v>10.13045645233561</v>
       </c>
       <c r="M13">
-        <v>11.10328334973116</v>
+        <v>14.04804401029008</v>
       </c>
       <c r="N13">
-        <v>12.04857057580526</v>
+        <v>19.7544629874927</v>
       </c>
       <c r="O13">
-        <v>16.34265072104113</v>
+        <v>24.53378454962532</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.44350065065256</v>
+        <v>12.63391053081448</v>
       </c>
       <c r="C14">
-        <v>7.824963795745423</v>
+        <v>8.607648688704613</v>
       </c>
       <c r="D14">
-        <v>5.933616088449056</v>
+        <v>6.021871422133864</v>
       </c>
       <c r="E14">
-        <v>7.530327830898951</v>
+        <v>12.23945224091158</v>
       </c>
       <c r="F14">
-        <v>21.07530960343534</v>
+        <v>27.5278334368958</v>
       </c>
       <c r="I14">
-        <v>15.35991811539019</v>
+        <v>24.57337434353995</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.56326155403037</v>
+        <v>9.780165176083853</v>
       </c>
       <c r="L14">
-        <v>6.791798943682645</v>
+        <v>10.13010775102006</v>
       </c>
       <c r="M14">
-        <v>11.03805630899844</v>
+        <v>14.03843709133963</v>
       </c>
       <c r="N14">
-        <v>12.08691482462698</v>
+        <v>19.76480324583234</v>
       </c>
       <c r="O14">
-        <v>16.32128334146809</v>
+        <v>24.54195110493225</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.35318176175624</v>
+        <v>12.60488321821594</v>
       </c>
       <c r="C15">
-        <v>7.807731985286777</v>
+        <v>8.602326915662857</v>
       </c>
       <c r="D15">
-        <v>5.915670793728019</v>
+        <v>6.015396462184384</v>
       </c>
       <c r="E15">
-        <v>7.528189453923255</v>
+        <v>12.24171899973136</v>
       </c>
       <c r="F15">
-        <v>21.0260928181164</v>
+        <v>27.52724295533508</v>
       </c>
       <c r="I15">
-        <v>15.36355139279885</v>
+        <v>24.5807098189176</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.49657269974593</v>
+        <v>9.758498634766916</v>
       </c>
       <c r="L15">
-        <v>6.778705707259321</v>
+        <v>10.12992055896487</v>
       </c>
       <c r="M15">
-        <v>10.99799375325198</v>
+        <v>14.03258614273715</v>
       </c>
       <c r="N15">
-        <v>12.11043910076371</v>
+        <v>19.77116870831139</v>
       </c>
       <c r="O15">
-        <v>16.30848315230624</v>
+        <v>24.54704279149088</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.82651489291532</v>
+        <v>12.43774080459659</v>
       </c>
       <c r="C16">
-        <v>7.70831050851621</v>
+        <v>8.57165313853451</v>
       </c>
       <c r="D16">
-        <v>5.811663405212652</v>
+        <v>5.977988302290825</v>
       </c>
       <c r="E16">
-        <v>7.517114918985237</v>
+        <v>12.25516806475391</v>
       </c>
       <c r="F16">
-        <v>20.74784921103264</v>
+        <v>27.52573316143253</v>
       </c>
       <c r="I16">
-        <v>15.38835553551107</v>
+        <v>24.6239572329016</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.10822600124265</v>
+        <v>9.633748960458531</v>
       </c>
       <c r="L16">
-        <v>6.704190897761519</v>
+        <v>10.12925323540449</v>
       </c>
       <c r="M16">
-        <v>10.76678765173229</v>
+        <v>13.99957691484022</v>
       </c>
       <c r="N16">
-        <v>12.24583793800787</v>
+        <v>19.80813412502882</v>
       </c>
       <c r="O16">
-        <v>16.23948389250337</v>
+        <v>24.57759141557742</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.49527712165269</v>
+        <v>12.33454460531688</v>
       </c>
       <c r="C17">
-        <v>7.646729047046312</v>
+        <v>8.552680444375838</v>
       </c>
       <c r="D17">
-        <v>5.746828819615752</v>
+        <v>5.954773542777229</v>
       </c>
       <c r="E17">
-        <v>7.511360321669105</v>
+        <v>12.26382866264432</v>
       </c>
       <c r="F17">
-        <v>20.58057466564081</v>
+        <v>27.52648073939821</v>
       </c>
       <c r="I17">
-        <v>15.40703929685807</v>
+        <v>24.651568171473</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.86446979694437</v>
+        <v>9.556733273345991</v>
       </c>
       <c r="L17">
-        <v>6.658952994531324</v>
+        <v>10.12920643922653</v>
       </c>
       <c r="M17">
-        <v>10.62355691330932</v>
+        <v>13.97979712026143</v>
       </c>
       <c r="N17">
-        <v>12.32944782920063</v>
+        <v>19.83124710687382</v>
       </c>
       <c r="O17">
-        <v>16.20097357917447</v>
+        <v>24.59755402069108</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.30175011924536</v>
+        <v>12.27496785318847</v>
       </c>
       <c r="C18">
-        <v>7.611096877448855</v>
+        <v>8.541711755757731</v>
       </c>
       <c r="D18">
-        <v>5.70916551186428</v>
+        <v>5.94132489667486</v>
       </c>
       <c r="E18">
-        <v>7.508427044773984</v>
+        <v>12.26896080853233</v>
       </c>
       <c r="F18">
-        <v>20.48563080716164</v>
+        <v>27.52752637944086</v>
       </c>
       <c r="I18">
-        <v>15.419025706275</v>
+        <v>24.66784603111694</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.72223907408757</v>
+        <v>9.512272906571283</v>
       </c>
       <c r="L18">
-        <v>6.633112919155296</v>
+        <v>10.12931309541837</v>
       </c>
       <c r="M18">
-        <v>10.54068562415131</v>
+        <v>13.96859552769376</v>
       </c>
       <c r="N18">
-        <v>12.37774683400489</v>
+        <v>19.84470161863103</v>
       </c>
       <c r="O18">
-        <v>16.18020013782366</v>
+        <v>24.60948479051295</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.23570723177964</v>
+        <v>12.25476030140921</v>
       </c>
       <c r="C19">
-        <v>7.598996452780401</v>
+        <v>8.537988405168662</v>
       </c>
       <c r="D19">
-        <v>5.696350053546892</v>
+        <v>5.936755063520695</v>
       </c>
       <c r="E19">
-        <v>7.50749806544595</v>
+        <v>12.27072437542125</v>
       </c>
       <c r="F19">
-        <v>20.45370330140082</v>
+        <v>27.52798619812367</v>
       </c>
       <c r="I19">
-        <v>15.42329386211646</v>
+        <v>24.67342556859747</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.6737337853388</v>
+        <v>9.497192902396176</v>
       </c>
       <c r="L19">
-        <v>6.624395249392363</v>
+        <v>10.12937217822944</v>
       </c>
       <c r="M19">
-        <v>10.51254520660172</v>
+        <v>13.96483317857593</v>
       </c>
       <c r="N19">
-        <v>12.39413663012158</v>
+        <v>19.84928469023228</v>
       </c>
       <c r="O19">
-        <v>16.1734004929553</v>
+        <v>24.61360139948956</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.53084891516153</v>
+        <v>12.34555338294724</v>
       </c>
       <c r="C20">
-        <v>7.653306560568243</v>
+        <v>8.554705948100786</v>
       </c>
       <c r="D20">
-        <v>5.753769233397922</v>
+        <v>5.957254780113272</v>
       </c>
       <c r="E20">
-        <v>7.511933809938237</v>
+        <v>12.26289112261357</v>
       </c>
       <c r="F20">
-        <v>20.59825034579454</v>
+        <v>27.5263374515849</v>
       </c>
       <c r="I20">
-        <v>15.40492127798103</v>
+        <v>24.64858787176741</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.89062800975347</v>
+        <v>9.564948948323883</v>
       </c>
       <c r="L20">
-        <v>6.663750179170925</v>
+        <v>10.12919760367435</v>
       </c>
       <c r="M20">
-        <v>10.63885519897841</v>
+        <v>13.9818846315917</v>
       </c>
       <c r="N20">
-        <v>12.32052597499557</v>
+        <v>19.82877008344151</v>
       </c>
       <c r="O20">
-        <v>16.20492998121246</v>
+        <v>24.59538251089247</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.48665081874301</v>
+        <v>12.64781505934501</v>
       </c>
       <c r="C21">
-        <v>7.833214867495002</v>
+        <v>8.610197460400224</v>
       </c>
       <c r="D21">
-        <v>5.942200447386297</v>
+        <v>6.024970928064861</v>
       </c>
       <c r="E21">
-        <v>7.531374294674833</v>
+        <v>12.23837338696547</v>
       </c>
       <c r="F21">
-        <v>21.09897714370859</v>
+        <v>27.5281497143026</v>
       </c>
       <c r="I21">
-        <v>15.35824755857042</v>
+        <v>24.56987820612726</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.59513142909757</v>
+        <v>9.790543948604496</v>
       </c>
       <c r="L21">
-        <v>6.798086474821129</v>
+        <v>10.13020467375555</v>
       </c>
       <c r="M21">
-        <v>11.05723792294351</v>
+        <v>14.04125189482573</v>
       </c>
       <c r="N21">
-        <v>12.07564445802522</v>
+        <v>19.76175944535382</v>
       </c>
       <c r="O21">
-        <v>16.32749930833135</v>
+        <v>24.53953375003616</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.0848521424456</v>
+        <v>12.842946347375</v>
       </c>
       <c r="C22">
-        <v>7.948814418533408</v>
+        <v>8.645943959608477</v>
       </c>
       <c r="D22">
-        <v>6.061912440757297</v>
+        <v>6.068336654258352</v>
       </c>
       <c r="E22">
-        <v>7.547545900635944</v>
+        <v>12.22369002646547</v>
       </c>
       <c r="F22">
-        <v>21.43727168689306</v>
+        <v>27.53480336634702</v>
       </c>
       <c r="I22">
-        <v>15.33951905882125</v>
+        <v>24.5219730345739</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.03753044503375</v>
+        <v>9.936208007694173</v>
       </c>
       <c r="L22">
-        <v>6.887372816030131</v>
+        <v>10.13204523118396</v>
       </c>
       <c r="M22">
-        <v>11.32585225833074</v>
+        <v>14.08156069007253</v>
       </c>
       <c r="N22">
-        <v>11.91729153673497</v>
+        <v>19.71938635626613</v>
       </c>
       <c r="O22">
-        <v>16.42042232575778</v>
+        <v>24.50703555739868</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.76798749632206</v>
+        <v>12.73904283088701</v>
       </c>
       <c r="C23">
-        <v>7.887302086324677</v>
+        <v>8.626914004595051</v>
       </c>
       <c r="D23">
-        <v>5.998340093729275</v>
+        <v>6.045274697716629</v>
       </c>
       <c r="E23">
-        <v>7.538592256341698</v>
+        <v>12.23140428758428</v>
       </c>
       <c r="F23">
-        <v>21.2557197382451</v>
+        <v>27.53075251474535</v>
       </c>
       <c r="I23">
-        <v>15.34840128356708</v>
+        <v>24.54721723150655</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.80306135466853</v>
+        <v>9.858641955212473</v>
       </c>
       <c r="L23">
-        <v>6.839587895831718</v>
+        <v>10.13095506149628</v>
       </c>
       <c r="M23">
-        <v>11.18294988798303</v>
+        <v>14.05991161629618</v>
       </c>
       <c r="N23">
-        <v>12.00166113886508</v>
+        <v>19.74187188874484</v>
       </c>
       <c r="O23">
-        <v>16.36962844518148</v>
+        <v>24.52401400486011</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.51477654787216</v>
+        <v>12.34057708161128</v>
       </c>
       <c r="C24">
-        <v>7.650333576324223</v>
+        <v>8.553790407755601</v>
       </c>
       <c r="D24">
-        <v>5.750632682655598</v>
+        <v>5.95613333056682</v>
       </c>
       <c r="E24">
-        <v>7.511673368735802</v>
+        <v>12.26331450769868</v>
       </c>
       <c r="F24">
-        <v>20.59025535398623</v>
+        <v>27.5264003135638</v>
       </c>
       <c r="I24">
-        <v>15.40587496489617</v>
+        <v>24.64993400697641</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.87880839813659</v>
+        <v>9.561235208060246</v>
       </c>
       <c r="L24">
-        <v>6.66158084811803</v>
+        <v>10.12920118213013</v>
       </c>
       <c r="M24">
-        <v>10.63194047700917</v>
+        <v>13.98094033739106</v>
       </c>
       <c r="N24">
-        <v>12.32455882529786</v>
+        <v>19.82988942685221</v>
       </c>
       <c r="O24">
-        <v>16.20313704131189</v>
+        <v>24.59636283634952</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.04781181920886</v>
+        <v>11.90261629527827</v>
       </c>
       <c r="C25">
-        <v>7.386685679567059</v>
+        <v>8.472782361473625</v>
       </c>
       <c r="D25">
-        <v>5.469309289688691</v>
+        <v>5.856326282880088</v>
       </c>
       <c r="E25">
-        <v>7.49696672350118</v>
+        <v>12.3035015198903</v>
       </c>
       <c r="F25">
-        <v>19.92103777908869</v>
+        <v>27.54524434100062</v>
       </c>
       <c r="I25">
-        <v>15.51487109616695</v>
+        <v>24.77589860881547</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.80433863800798</v>
+        <v>9.234418912979383</v>
       </c>
       <c r="L25">
-        <v>6.476502529507674</v>
+        <v>10.13241935430597</v>
       </c>
       <c r="M25">
-        <v>10.01927760572629</v>
+        <v>13.90248317618705</v>
       </c>
       <c r="N25">
-        <v>12.68092753629283</v>
+        <v>19.93097288709414</v>
       </c>
       <c r="O25">
-        <v>16.07581936662448</v>
+        <v>24.69155703179003</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_107/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_107/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.57568926279046</v>
+        <v>12.86680926811869</v>
       </c>
       <c r="C2">
-        <v>8.411402818432384</v>
+        <v>7.186211401870598</v>
       </c>
       <c r="D2">
-        <v>5.77987598320147</v>
+        <v>5.250806173063881</v>
       </c>
       <c r="E2">
-        <v>12.338066472155</v>
+        <v>7.497831962153642</v>
       </c>
       <c r="F2">
-        <v>27.5793829702987</v>
+        <v>19.47105288620748</v>
       </c>
       <c r="I2">
-        <v>24.88168758446635</v>
+        <v>15.63176315721411</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.990456234174768</v>
+        <v>10.94666514524929</v>
       </c>
       <c r="L2">
-        <v>10.1392141833351</v>
+        <v>6.346747182324807</v>
       </c>
       <c r="M2">
-        <v>13.85074040336107</v>
+        <v>9.555489143383721</v>
       </c>
       <c r="N2">
-        <v>20.01073722370116</v>
+        <v>12.95115266967457</v>
       </c>
       <c r="O2">
-        <v>24.7763701348219</v>
+        <v>16.02378249078521</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.35274404535038</v>
+        <v>12.00260538209463</v>
       </c>
       <c r="C3">
-        <v>8.368775653057654</v>
+        <v>7.046726007831398</v>
       </c>
       <c r="D3">
-        <v>5.726312211540399</v>
+        <v>5.09612259642808</v>
       </c>
       <c r="E3">
-        <v>12.3646028003379</v>
+        <v>7.50538914166121</v>
       </c>
       <c r="F3">
-        <v>27.6151517684014</v>
+        <v>19.19305964641093</v>
       </c>
       <c r="I3">
-        <v>24.96151525016285</v>
+        <v>15.73202213084773</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.824049441003243</v>
+        <v>10.32424222053253</v>
       </c>
       <c r="L3">
-        <v>10.14659296349581</v>
+        <v>6.263149019291809</v>
       </c>
       <c r="M3">
-        <v>13.81954460307021</v>
+        <v>9.235147668556456</v>
       </c>
       <c r="N3">
-        <v>20.06815077141586</v>
+        <v>13.13958715950802</v>
       </c>
       <c r="O3">
-        <v>24.84301352394798</v>
+        <v>16.01281136494613</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.2156673369071</v>
+        <v>11.44020702481222</v>
       </c>
       <c r="C4">
-        <v>8.34211231900327</v>
+        <v>6.95942447192501</v>
       </c>
       <c r="D4">
-        <v>5.692592784133676</v>
+        <v>4.998082326911883</v>
       </c>
       <c r="E4">
-        <v>12.38243338315651</v>
+        <v>7.513358658889651</v>
       </c>
       <c r="F4">
-        <v>27.64333794687496</v>
+        <v>19.03569224957874</v>
       </c>
       <c r="I4">
-        <v>25.01454087973668</v>
+        <v>15.8033838383408</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.721702006289339</v>
+        <v>9.921989541402596</v>
       </c>
       <c r="L4">
-        <v>10.1524957887733</v>
+        <v>6.214044728787136</v>
       </c>
       <c r="M4">
-        <v>13.80233469023047</v>
+        <v>9.036217970834418</v>
       </c>
       <c r="N4">
-        <v>20.10506738927893</v>
+        <v>13.25802939279027</v>
       </c>
       <c r="O4">
-        <v>24.88844642166266</v>
+        <v>16.01746564778197</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.15983759346573</v>
+        <v>11.20299394005314</v>
       </c>
       <c r="C5">
-        <v>8.331126388260882</v>
+        <v>6.923453130169567</v>
       </c>
       <c r="D5">
-        <v>5.678648164320137</v>
+        <v>4.957392166454454</v>
       </c>
       <c r="E5">
-        <v>12.39008638610733</v>
+        <v>7.517427273635947</v>
       </c>
       <c r="F5">
-        <v>27.65638779086868</v>
+        <v>18.97490809029339</v>
       </c>
       <c r="I5">
-        <v>25.03715771493138</v>
+        <v>15.83484648866073</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.680006464146574</v>
+        <v>9.753067877873837</v>
       </c>
       <c r="L5">
-        <v>10.1552468966056</v>
+        <v>6.194606110294091</v>
       </c>
       <c r="M5">
-        <v>13.79581564970971</v>
+        <v>8.954711414661636</v>
       </c>
       <c r="N5">
-        <v>20.12053095236793</v>
+        <v>13.30700295954641</v>
       </c>
       <c r="O5">
-        <v>24.90809458980674</v>
+        <v>16.02213700252532</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.15057121412935</v>
+        <v>11.1631186207572</v>
       </c>
       <c r="C6">
-        <v>8.329294993222891</v>
+        <v>6.917456893243382</v>
       </c>
       <c r="D6">
-        <v>5.676320525451258</v>
+        <v>4.950592034120942</v>
       </c>
       <c r="E6">
-        <v>12.39138053936738</v>
+        <v>7.518151971753973</v>
       </c>
       <c r="F6">
-        <v>27.65864910460463</v>
+        <v>18.96501653920921</v>
       </c>
       <c r="I6">
-        <v>25.04097412678637</v>
+        <v>15.84021235381212</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.673085305470837</v>
+        <v>9.724718302147737</v>
       </c>
       <c r="L6">
-        <v>10.15572460911252</v>
+        <v>6.191413207843508</v>
       </c>
       <c r="M6">
-        <v>13.79476315752902</v>
+        <v>8.941154416502343</v>
       </c>
       <c r="N6">
-        <v>20.12312405184793</v>
+        <v>13.31517821319622</v>
       </c>
       <c r="O6">
-        <v>24.91142560415388</v>
+        <v>16.0230776164068</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.21491417227249</v>
+        <v>11.43704045892219</v>
       </c>
       <c r="C7">
-        <v>8.341964642681015</v>
+        <v>6.958940921039543</v>
       </c>
       <c r="D7">
-        <v>5.692405539756534</v>
+        <v>4.997536508005101</v>
       </c>
       <c r="E7">
-        <v>12.38253502722681</v>
+        <v>7.513410227085533</v>
       </c>
       <c r="F7">
-        <v>27.64350761223989</v>
+        <v>19.03485896739338</v>
       </c>
       <c r="I7">
-        <v>25.01484181529231</v>
+        <v>15.80379861639275</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.721139563680213</v>
+        <v>9.919731574768161</v>
       </c>
       <c r="L7">
-        <v>10.15253149087051</v>
+        <v>6.213780242479083</v>
       </c>
       <c r="M7">
-        <v>13.80224476482393</v>
+        <v>9.035120362936265</v>
       </c>
       <c r="N7">
-        <v>20.10527423519203</v>
+        <v>13.25868698025717</v>
       </c>
       <c r="O7">
-        <v>24.88870681413945</v>
+        <v>16.01751753200963</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.49890249683494</v>
+        <v>12.57540125294342</v>
       </c>
       <c r="C8">
-        <v>8.39680838124289</v>
+        <v>7.13847315714501</v>
       </c>
       <c r="D8">
-        <v>5.76158282640305</v>
+        <v>5.198125754454648</v>
       </c>
       <c r="E8">
-        <v>12.34689737920939</v>
+        <v>7.499736940955855</v>
       </c>
       <c r="F8">
-        <v>27.59042362197627</v>
+        <v>19.37243588898101</v>
       </c>
       <c r="I8">
-        <v>24.90837955863764</v>
+        <v>15.66424734013448</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.933147954733627</v>
+        <v>10.7362469103285</v>
       </c>
       <c r="L8">
-        <v>10.14147396146906</v>
+        <v>6.317468355489408</v>
       </c>
       <c r="M8">
-        <v>13.83958374353299</v>
+        <v>9.445570186615207</v>
       </c>
       <c r="N8">
-        <v>20.03018867903767</v>
+        <v>13.01556654716084</v>
       </c>
       <c r="O8">
-        <v>24.79841135351477</v>
+        <v>16.01758212846757</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.05101497620471</v>
+        <v>14.55751178705323</v>
       </c>
       <c r="C9">
-        <v>8.500346187602585</v>
+        <v>7.476523836728978</v>
       </c>
       <c r="D9">
-        <v>5.890419064262781</v>
+        <v>5.565897264560037</v>
       </c>
       <c r="E9">
-        <v>12.28919261571202</v>
+        <v>7.500061597100957</v>
       </c>
       <c r="F9">
-        <v>27.53574918551134</v>
+        <v>20.13987874443583</v>
       </c>
       <c r="I9">
-        <v>24.73144106361075</v>
+        <v>15.47221607964687</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.345153287726948</v>
+        <v>12.17663601483534</v>
       </c>
       <c r="L9">
-        <v>10.13064981085861</v>
+        <v>6.537871422810509</v>
       </c>
       <c r="M9">
-        <v>13.9279913284089</v>
+        <v>10.22785076454896</v>
       </c>
       <c r="N9">
-        <v>19.89609731982589</v>
+        <v>12.55972481126562</v>
       </c>
       <c r="O9">
-        <v>24.65720150289095</v>
+        <v>16.11200483039955</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.44948469270492</v>
+        <v>15.86390491856596</v>
       </c>
       <c r="C10">
-        <v>8.573810382262257</v>
+        <v>7.71530830023288</v>
       </c>
       <c r="D10">
-        <v>5.980624122030444</v>
+        <v>5.819010598297758</v>
       </c>
       <c r="E10">
-        <v>12.25420025585162</v>
+        <v>7.517822976805601</v>
       </c>
       <c r="F10">
-        <v>27.52573124378134</v>
+        <v>20.76710739276551</v>
       </c>
       <c r="I10">
-        <v>24.62086040735545</v>
+        <v>15.38639407818572</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.642513765553016</v>
+        <v>13.13576542717189</v>
       </c>
       <c r="L10">
-        <v>10.12927665151721</v>
+        <v>6.709376812874017</v>
       </c>
       <c r="M10">
-        <v>14.0018574982666</v>
+        <v>10.78306332396138</v>
       </c>
       <c r="N10">
-        <v>19.8055185010306</v>
+        <v>12.23632520509604</v>
       </c>
       <c r="O10">
-        <v>24.57537437890571</v>
+        <v>16.24406667040045</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.62836285587491</v>
+        <v>16.4262639701845</v>
       </c>
       <c r="C11">
-        <v>8.606631694091606</v>
+        <v>7.821671179371746</v>
       </c>
       <c r="D11">
-        <v>6.020634394715334</v>
+        <v>5.930188966641615</v>
       </c>
       <c r="E11">
-        <v>12.23988393843665</v>
+        <v>7.529914305607052</v>
       </c>
       <c r="F11">
-        <v>27.52771327147661</v>
+        <v>21.06588323540188</v>
       </c>
       <c r="I11">
-        <v>24.5747724245505</v>
+        <v>15.36059724888231</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.776024249251549</v>
+        <v>13.55053250426053</v>
       </c>
       <c r="L11">
-        <v>10.13007038775864</v>
+        <v>6.789293150509561</v>
       </c>
       <c r="M11">
-        <v>14.03731621514009</v>
+        <v>11.03040155467676</v>
       </c>
       <c r="N11">
-        <v>19.76601863288473</v>
+        <v>12.09141115712881</v>
       </c>
       <c r="O11">
-        <v>24.54291948694569</v>
+        <v>16.31881852362362</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.69569073700109</v>
+        <v>16.63467201351382</v>
       </c>
       <c r="C12">
-        <v>8.618971370480468</v>
+        <v>7.861609506654791</v>
       </c>
       <c r="D12">
-        <v>6.035632995890083</v>
+        <v>5.971701046474096</v>
       </c>
       <c r="E12">
-        <v>12.23469265243313</v>
+        <v>7.535086397680855</v>
       </c>
       <c r="F12">
-        <v>27.52940236268622</v>
+        <v>21.18092039064386</v>
       </c>
       <c r="I12">
-        <v>24.5579265447453</v>
+        <v>15.352839924363</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.826280686480748</v>
+        <v>13.70450075040249</v>
       </c>
       <c r="L12">
-        <v>10.13057390198598</v>
+        <v>6.819812551679217</v>
       </c>
       <c r="M12">
-        <v>14.05100315682212</v>
+        <v>11.12324018476162</v>
       </c>
       <c r="N12">
-        <v>19.75130497737673</v>
+        <v>12.03682763358925</v>
       </c>
       <c r="O12">
-        <v>24.53131610064592</v>
+        <v>16.34931816358337</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.68120969209698</v>
+        <v>16.58998901835131</v>
       </c>
       <c r="C13">
-        <v>8.616317809114515</v>
+        <v>7.853023349471837</v>
       </c>
       <c r="D13">
-        <v>6.032409637484601</v>
+        <v>5.962787134346983</v>
       </c>
       <c r="E13">
-        <v>12.2358004656101</v>
+        <v>7.53394584415495</v>
       </c>
       <c r="F13">
-        <v>27.52899688040979</v>
+        <v>21.15606130052189</v>
       </c>
       <c r="I13">
-        <v>24.56152761930313</v>
+        <v>15.35441941312999</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.815471189816428</v>
+        <v>13.67147847168025</v>
       </c>
       <c r="L13">
-        <v>10.13045645233561</v>
+        <v>6.813228482229572</v>
       </c>
       <c r="M13">
-        <v>14.04804401029008</v>
+        <v>11.10328334973117</v>
       </c>
       <c r="N13">
-        <v>19.7544629874927</v>
+        <v>12.04857057580526</v>
       </c>
       <c r="O13">
-        <v>24.53378454962532</v>
+        <v>16.34265072104113</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.63391053081448</v>
+        <v>16.44350065065255</v>
       </c>
       <c r="C14">
-        <v>8.607648688704613</v>
+        <v>7.824963795745532</v>
       </c>
       <c r="D14">
-        <v>6.021871422133864</v>
+        <v>5.933616088448855</v>
       </c>
       <c r="E14">
-        <v>12.23945224091158</v>
+        <v>7.530327830898949</v>
       </c>
       <c r="F14">
-        <v>27.5278334368958</v>
+        <v>21.07530960343542</v>
       </c>
       <c r="I14">
-        <v>24.57337434353995</v>
+        <v>15.35991811539027</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.780165176083853</v>
+        <v>13.56326155403038</v>
       </c>
       <c r="L14">
-        <v>10.13010775102006</v>
+        <v>6.79179894368261</v>
       </c>
       <c r="M14">
-        <v>14.03843709133963</v>
+        <v>11.03805630899844</v>
       </c>
       <c r="N14">
-        <v>19.76480324583234</v>
+        <v>12.08691482462704</v>
       </c>
       <c r="O14">
-        <v>24.54195110493225</v>
+        <v>16.32128334146814</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.60488321821594</v>
+        <v>16.35318176175628</v>
       </c>
       <c r="C15">
-        <v>8.602326915662857</v>
+        <v>7.807731985286871</v>
       </c>
       <c r="D15">
-        <v>6.015396462184384</v>
+        <v>5.915670793728104</v>
       </c>
       <c r="E15">
-        <v>12.24171899973136</v>
+        <v>7.52818945392326</v>
       </c>
       <c r="F15">
-        <v>27.52724295533508</v>
+        <v>21.02609281811637</v>
       </c>
       <c r="I15">
-        <v>24.5807098189176</v>
+        <v>15.36355139279891</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.758498634766916</v>
+        <v>13.49657269974595</v>
       </c>
       <c r="L15">
-        <v>10.12992055896487</v>
+        <v>6.778705707259276</v>
       </c>
       <c r="M15">
-        <v>14.03258614273715</v>
+        <v>10.99799375325197</v>
       </c>
       <c r="N15">
-        <v>19.77116870831139</v>
+        <v>12.11043910076374</v>
       </c>
       <c r="O15">
-        <v>24.54704279149088</v>
+        <v>16.30848315230625</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.43774080459659</v>
+        <v>15.82651489291538</v>
       </c>
       <c r="C16">
-        <v>8.57165313853451</v>
+        <v>7.708310508515965</v>
       </c>
       <c r="D16">
-        <v>5.977988302290825</v>
+        <v>5.811663405212866</v>
       </c>
       <c r="E16">
-        <v>12.25516806475391</v>
+        <v>7.51711491898519</v>
       </c>
       <c r="F16">
-        <v>27.52573316143253</v>
+        <v>20.74784921103259</v>
       </c>
       <c r="I16">
-        <v>24.6239572329016</v>
+        <v>15.38835553551103</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.633748960458531</v>
+        <v>13.1082260012427</v>
       </c>
       <c r="L16">
-        <v>10.12925323540449</v>
+        <v>6.704190897761532</v>
       </c>
       <c r="M16">
-        <v>13.99957691484022</v>
+        <v>10.76678765173227</v>
       </c>
       <c r="N16">
-        <v>19.80813412502882</v>
+        <v>12.24583793800787</v>
       </c>
       <c r="O16">
-        <v>24.57759141557742</v>
+        <v>16.23948389250336</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.33454460531688</v>
+        <v>15.49527712165276</v>
       </c>
       <c r="C17">
-        <v>8.552680444375838</v>
+        <v>7.646729047046094</v>
       </c>
       <c r="D17">
-        <v>5.954773542777229</v>
+        <v>5.746828819615746</v>
       </c>
       <c r="E17">
-        <v>12.26382866264432</v>
+        <v>7.511360321669101</v>
       </c>
       <c r="F17">
-        <v>27.52648073939821</v>
+        <v>20.58057466564061</v>
       </c>
       <c r="I17">
-        <v>24.651568171473</v>
+        <v>15.40703929685789</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.556733273345991</v>
+        <v>12.86446979694444</v>
       </c>
       <c r="L17">
-        <v>10.12920643922653</v>
+        <v>6.658952994531335</v>
       </c>
       <c r="M17">
-        <v>13.97979712026143</v>
+        <v>10.62355691330931</v>
       </c>
       <c r="N17">
-        <v>19.83124710687382</v>
+        <v>12.32944782920053</v>
       </c>
       <c r="O17">
-        <v>24.59755402069108</v>
+        <v>16.20097357917428</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.27496785318847</v>
+        <v>15.30175011924538</v>
       </c>
       <c r="C18">
-        <v>8.541711755757731</v>
+        <v>7.611096877449071</v>
       </c>
       <c r="D18">
-        <v>5.94132489667486</v>
+        <v>5.709165511864294</v>
       </c>
       <c r="E18">
-        <v>12.26896080853233</v>
+        <v>7.508427044774092</v>
       </c>
       <c r="F18">
-        <v>27.52752637944086</v>
+        <v>20.48563080716151</v>
       </c>
       <c r="I18">
-        <v>24.66784603111694</v>
+        <v>15.41902570627487</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.512272906571283</v>
+        <v>12.72223907408765</v>
       </c>
       <c r="L18">
-        <v>10.12931309541837</v>
+        <v>6.633112919155247</v>
       </c>
       <c r="M18">
-        <v>13.96859552769376</v>
+        <v>10.54068562415128</v>
       </c>
       <c r="N18">
-        <v>19.84470161863103</v>
+        <v>12.37774683400479</v>
       </c>
       <c r="O18">
-        <v>24.60948479051295</v>
+        <v>16.1802001378235</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.25476030140921</v>
+        <v>15.23570723177967</v>
       </c>
       <c r="C19">
-        <v>8.537988405168662</v>
+        <v>7.59899645278027</v>
       </c>
       <c r="D19">
-        <v>5.936755063520695</v>
+        <v>5.696350053546931</v>
       </c>
       <c r="E19">
-        <v>12.27072437542125</v>
+        <v>7.507498065445906</v>
       </c>
       <c r="F19">
-        <v>27.52798619812367</v>
+        <v>20.4537033014007</v>
       </c>
       <c r="I19">
-        <v>24.67342556859747</v>
+        <v>15.42329386211634</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.497192902396176</v>
+        <v>12.67373378533882</v>
       </c>
       <c r="L19">
-        <v>10.12937217822944</v>
+        <v>6.62439524939233</v>
       </c>
       <c r="M19">
-        <v>13.96483317857593</v>
+        <v>10.5125452066017</v>
       </c>
       <c r="N19">
-        <v>19.84928469023228</v>
+        <v>12.39413663012151</v>
       </c>
       <c r="O19">
-        <v>24.61360139948956</v>
+        <v>16.1734004929552</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.34555338294724</v>
+        <v>15.53084891516158</v>
       </c>
       <c r="C20">
-        <v>8.554705948100786</v>
+        <v>7.65330656056776</v>
       </c>
       <c r="D20">
-        <v>5.957254780113272</v>
+        <v>5.753769233398084</v>
       </c>
       <c r="E20">
-        <v>12.26289112261357</v>
+        <v>7.511933809938133</v>
       </c>
       <c r="F20">
-        <v>27.5263374515849</v>
+        <v>20.59825034579462</v>
       </c>
       <c r="I20">
-        <v>24.64858787176741</v>
+        <v>15.40492127798104</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.564948948323883</v>
+        <v>12.89062800975343</v>
       </c>
       <c r="L20">
-        <v>10.12919760367435</v>
+        <v>6.663750179170945</v>
       </c>
       <c r="M20">
-        <v>13.9818846315917</v>
+        <v>10.63885519897839</v>
       </c>
       <c r="N20">
-        <v>19.82877008344151</v>
+        <v>12.32052597499564</v>
       </c>
       <c r="O20">
-        <v>24.59538251089247</v>
+        <v>16.2049299812126</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.64781505934501</v>
+        <v>16.48665081874305</v>
       </c>
       <c r="C21">
-        <v>8.610197460400224</v>
+        <v>7.833214867495003</v>
       </c>
       <c r="D21">
-        <v>6.024970928064861</v>
+        <v>5.942200447386297</v>
       </c>
       <c r="E21">
-        <v>12.23837338696547</v>
+        <v>7.531374294674883</v>
       </c>
       <c r="F21">
-        <v>27.5281497143026</v>
+        <v>21.09897714370847</v>
       </c>
       <c r="I21">
-        <v>24.56987820612726</v>
+        <v>15.35824755857026</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.790543948604496</v>
+        <v>13.59513142909758</v>
       </c>
       <c r="L21">
-        <v>10.13020467375555</v>
+        <v>6.798086474821117</v>
       </c>
       <c r="M21">
-        <v>14.04125189482573</v>
+        <v>11.05723792294349</v>
       </c>
       <c r="N21">
-        <v>19.76175944535382</v>
+        <v>12.07564445802512</v>
       </c>
       <c r="O21">
-        <v>24.53953375003616</v>
+        <v>16.32749930833121</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.842946347375</v>
+        <v>17.08485214244567</v>
       </c>
       <c r="C22">
-        <v>8.645943959608477</v>
+        <v>7.948814418533498</v>
       </c>
       <c r="D22">
-        <v>6.068336654258352</v>
+        <v>6.061912440757395</v>
       </c>
       <c r="E22">
-        <v>12.22369002646547</v>
+        <v>7.54754590063594</v>
       </c>
       <c r="F22">
-        <v>27.53480336634702</v>
+        <v>21.43727168689291</v>
       </c>
       <c r="I22">
-        <v>24.5219730345739</v>
+        <v>15.33951905882112</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.936208007694173</v>
+        <v>14.03753044503384</v>
       </c>
       <c r="L22">
-        <v>10.13204523118396</v>
+        <v>6.887372816030133</v>
       </c>
       <c r="M22">
-        <v>14.08156069007253</v>
+        <v>11.32585225833071</v>
       </c>
       <c r="N22">
-        <v>19.71938635626613</v>
+        <v>11.91729153673494</v>
       </c>
       <c r="O22">
-        <v>24.50703555739868</v>
+        <v>16.42042232575765</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.73904283088701</v>
+        <v>16.76798749632211</v>
       </c>
       <c r="C23">
-        <v>8.626914004595051</v>
+        <v>7.887302086324565</v>
       </c>
       <c r="D23">
-        <v>6.045274697716629</v>
+        <v>5.998340093729274</v>
       </c>
       <c r="E23">
-        <v>12.23140428758428</v>
+        <v>7.538592256341703</v>
       </c>
       <c r="F23">
-        <v>27.53075251474535</v>
+        <v>21.25571973824509</v>
       </c>
       <c r="I23">
-        <v>24.54721723150655</v>
+        <v>15.34840128356704</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.858641955212473</v>
+        <v>13.80306135466853</v>
       </c>
       <c r="L23">
-        <v>10.13095506149628</v>
+        <v>6.839587895831711</v>
       </c>
       <c r="M23">
-        <v>14.05991161629618</v>
+        <v>11.18294988798303</v>
       </c>
       <c r="N23">
-        <v>19.74187188874484</v>
+        <v>12.00166113886504</v>
       </c>
       <c r="O23">
-        <v>24.52401400486011</v>
+        <v>16.36962844518145</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.34057708161128</v>
+        <v>15.51477654787214</v>
       </c>
       <c r="C24">
-        <v>8.553790407755601</v>
+        <v>7.650333576324354</v>
       </c>
       <c r="D24">
-        <v>5.95613333056682</v>
+        <v>5.750632682655676</v>
       </c>
       <c r="E24">
-        <v>12.26331450769868</v>
+        <v>7.511673368735846</v>
       </c>
       <c r="F24">
-        <v>27.5264003135638</v>
+        <v>20.5902553539862</v>
       </c>
       <c r="I24">
-        <v>24.64993400697641</v>
+        <v>15.40587496489623</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.561235208060246</v>
+        <v>12.87880839813661</v>
       </c>
       <c r="L24">
-        <v>10.12920118213013</v>
+        <v>6.661580848118024</v>
       </c>
       <c r="M24">
-        <v>13.98094033739106</v>
+        <v>10.63194047700918</v>
       </c>
       <c r="N24">
-        <v>19.82988942685221</v>
+        <v>12.32455882529786</v>
       </c>
       <c r="O24">
-        <v>24.59636283634952</v>
+        <v>16.2031370413119</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.90261629527827</v>
+        <v>14.04781181920887</v>
       </c>
       <c r="C25">
-        <v>8.472782361473625</v>
+        <v>7.386685679567308</v>
       </c>
       <c r="D25">
-        <v>5.856326282880088</v>
+        <v>5.469309289688693</v>
       </c>
       <c r="E25">
-        <v>12.3035015198903</v>
+        <v>7.496966723501123</v>
       </c>
       <c r="F25">
-        <v>27.54524434100062</v>
+        <v>19.92103777908859</v>
       </c>
       <c r="I25">
-        <v>24.77589860881547</v>
+        <v>15.51487109616688</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.234418912979383</v>
+        <v>11.80433863800801</v>
       </c>
       <c r="L25">
-        <v>10.13241935430597</v>
+        <v>6.476502529507611</v>
       </c>
       <c r="M25">
-        <v>13.90248317618705</v>
+        <v>10.01927760572627</v>
       </c>
       <c r="N25">
-        <v>19.93097288709414</v>
+        <v>12.68092753629273</v>
       </c>
       <c r="O25">
-        <v>24.69155703179003</v>
+        <v>16.07581936662438</v>
       </c>
     </row>
   </sheetData>
